--- a/artfynd/A 57690-2022.xlsx
+++ b/artfynd/A 57690-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3916143</v>
+        <v>1571027</v>
       </c>
       <c r="B2" t="n">
-        <v>99381</v>
+        <v>89350</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221223</v>
+        <v>5445</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vippärt</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lathyrus niger</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Finspång, strax NV om Översätter, Ög</t>
+          <t>Ängen O, nära kraftledningen, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>541855.4368454639</v>
+        <v>541420.1842529235</v>
       </c>
       <c r="R2" t="n">
-        <v>6507689.400664413</v>
+        <v>6507894.116983887</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-08-25</t>
+          <t>2011-04-22</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-08-25</t>
+          <t>2011-04-22</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,28 +779,33 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>ek-hassellund</t>
+          <t>Lövskog med ek, asp och Salix</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ek</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5021320</v>
+        <v>3916143</v>
       </c>
       <c r="B3" t="n">
-        <v>98519</v>
+        <v>99381</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +814,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>221223</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vippärt</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus niger</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -914,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>160788</v>
+        <v>5021320</v>
       </c>
       <c r="B4" t="n">
-        <v>73689</v>
+        <v>98519</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,37 +935,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>311</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brun nållav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca phaeocephala</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Turner) Th.Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>MÄSELNOMRÅDET, Ög</t>
+          <t>Finspång, strax NV om Översätter, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541653.9428826337</v>
+        <v>541855.4368454639</v>
       </c>
       <c r="R4" t="n">
-        <v>6507597.34783431</v>
+        <v>6507689.400664413</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -984,7 +989,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1997-01-01</t>
+          <t>2005-08-25</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -994,7 +999,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1998-01-01</t>
+          <t>2005-08-25</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1011,30 +1016,30 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AR4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>ek-hassellund</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Tommy Karlsson</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Sällsynta lavar i Östergötland 2000</t>
-        </is>
-      </c>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1571027</v>
+        <v>160788</v>
       </c>
       <c r="B5" t="n">
-        <v>89350</v>
+        <v>73689</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,38 +1048,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5445</v>
+        <v>311</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Brun nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Chaenotheca phaeocephala</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Turner) Th.Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Ängen O, nära kraftledningen, Ög</t>
+          <t>MÄSELNOMRÅDET, Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>541420.1842529235</v>
+        <v>541653.9428826337</v>
       </c>
       <c r="R5" t="n">
-        <v>6507894.116983887</v>
+        <v>6507597.34783431</v>
       </c>
       <c r="S5" t="n">
         <v>100</v>
@@ -1101,7 +1106,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2011-04-22</t>
+          <t>1997-01-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1116,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2011-04-22</t>
+          <t>1998-01-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,28 +1133,23 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Lövskog med ek, asp och Salix</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>ek</t>
-        </is>
-      </c>
+      <c r="AR5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Tommy Karlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Sällsynta lavar i Östergötland 2000</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">

--- a/artfynd/A 57690-2022.xlsx
+++ b/artfynd/A 57690-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1571027</v>
+        <v>3916143</v>
       </c>
       <c r="B2" t="n">
-        <v>89350</v>
+        <v>99381</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5445</v>
+        <v>221223</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Vippärt</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fomitiporia robusta</t>
+          <t>Lathyrus niger</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ängen O, nära kraftledningen, Ög</t>
+          <t>Finspång, strax NV om Översätter, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>541420.1842529235</v>
+        <v>541855.4368454639</v>
       </c>
       <c r="R2" t="n">
-        <v>6507894.116983887</v>
+        <v>6507689.400664413</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2011-04-22</t>
+          <t>2005-08-25</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2011-04-22</t>
+          <t>2005-08-25</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,33 +779,28 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Lövskog med ek, asp och Salix</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ek</t>
+          <t>ek-hassellund</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3916143</v>
+        <v>5021320</v>
       </c>
       <c r="B3" t="n">
-        <v>99381</v>
+        <v>98519</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221223</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vippärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lathyrus niger</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -919,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5021320</v>
+        <v>160788</v>
       </c>
       <c r="B4" t="n">
-        <v>98519</v>
+        <v>73689</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,37 +930,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>311</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Brun nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Chaenotheca phaeocephala</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Turner) Th.Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Finspång, strax NV om Översätter, Ög</t>
+          <t>MÄSELNOMRÅDET, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>541855.4368454639</v>
+        <v>541653.9428826337</v>
       </c>
       <c r="R4" t="n">
-        <v>6507689.400664413</v>
+        <v>6507597.34783431</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -989,7 +984,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2005-08-25</t>
+          <t>1997-01-01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -999,7 +994,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2005-08-25</t>
+          <t>1998-01-01</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1016,30 +1011,30 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>ek-hassellund</t>
-        </is>
-      </c>
+      <c r="AR4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Tommy Karlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Sällsynta lavar i Östergötland 2000</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>160788</v>
+        <v>1571027</v>
       </c>
       <c r="B5" t="n">
-        <v>73689</v>
+        <v>89350</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,38 +1043,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>311</v>
+        <v>5445</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brun nållav</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca phaeocephala</t>
+          <t>Fomitiporia robusta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Turner) Th.Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>MÄSELNOMRÅDET, Ög</t>
+          <t>Ängen O, nära kraftledningen, Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>541653.9428826337</v>
+        <v>541420.1842529235</v>
       </c>
       <c r="R5" t="n">
-        <v>6507597.34783431</v>
+        <v>6507894.116983887</v>
       </c>
       <c r="S5" t="n">
         <v>100</v>
@@ -1106,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1997-01-01</t>
+          <t>2011-04-22</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1116,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1998-01-01</t>
+          <t>2011-04-22</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1133,23 +1128,28 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AR5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Lövskog med ek, asp och Salix</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ek</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Tommy Karlsson</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Sällsynta lavar i Östergötland 2000</t>
-        </is>
-      </c>
+          <t>Dan Olofsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
